--- a/crudo/datos/Tasa de indigencia y pobreza.xlsx
+++ b/crudo/datos/Tasa de indigencia y pobreza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/garakaki_worldbank_org/Documents/Papers/ceped.data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB522502\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="8_{2D14266E-B601-4AB4-8B1C-10FF23189079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABAB0DDB-F49B-4273-9580-0C95D1C8F365}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4578D704-46CA-4AB4-97A8-2231CD693548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{503DF18A-FBD2-4540-A0CB-45976D20A4E2}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{503DF18A-FBD2-4540-A0CB-45976D20A4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="indig (1985)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="70">
   <si>
     <t>Empalme</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>2° 2022</t>
+  </si>
+  <si>
+    <t>1° 2023</t>
+  </si>
+  <si>
+    <t>2° 2023</t>
   </si>
 </sst>
 </file>
@@ -510,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +642,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,9 +667,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -974,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782FD123-5042-4541-955C-4C20CB257A39}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104:O106"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N106" sqref="N106:P108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1021,22 +1030,22 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="48"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -2457,10 +2466,10 @@
         <v>77.321461470957559</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="47"/>
+      <c r="G65" s="49"/>
       <c r="I65" s="8">
         <v>37377</v>
       </c>
@@ -2591,7 +2600,7 @@
       </c>
       <c r="N68" s="37"/>
       <c r="O68" s="3">
-        <f t="shared" ref="O68:O104" si="2">+F68</f>
+        <f t="shared" ref="O68:O103" si="2">+F68</f>
         <v>17.919407974769005</v>
       </c>
       <c r="P68" s="3">
@@ -3755,10 +3764,10 @@
         <v>66</v>
       </c>
       <c r="J105" s="21">
-        <v>10.169165044962309</v>
+        <v>10.147258615883869</v>
       </c>
       <c r="K105" s="29">
-        <v>89.830834955037687</v>
+        <v>89.852741384116129</v>
       </c>
       <c r="M105" s="15" t="s">
         <v>66</v>
@@ -3770,7 +3779,7 @@
       </c>
       <c r="P105" s="3">
         <f t="shared" si="3"/>
-        <v>10.169165044962309</v>
+        <v>10.147258615883869</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3799,7 +3808,7 @@
       </c>
       <c r="N106" s="37"/>
       <c r="O106" s="3">
-        <f t="shared" si="4"/>
+        <f>+F106</f>
         <v>7.0390336132484386</v>
       </c>
       <c r="P106" s="3">
@@ -3808,158 +3817,226 @@
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="35"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-    </row>
-    <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F108" s="3"/>
-      <c r="G108" s="23"/>
-    </row>
-    <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
+      <c r="A107" s="43"/>
+      <c r="E107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="21">
+        <v>9.4713097434496323</v>
+      </c>
+      <c r="G107" s="13">
+        <v>90.528690256550362</v>
+      </c>
+      <c r="H107" s="43"/>
+      <c r="I107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="21">
+        <v>10.173104269824943</v>
+      </c>
+      <c r="K107" s="29">
+        <v>89.826895730175067</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N107" s="37"/>
+      <c r="O107" s="3">
+        <f t="shared" ref="O107:O108" si="5">+F107</f>
+        <v>9.4713097434496323</v>
+      </c>
+      <c r="P107" s="3">
+        <f t="shared" ref="P107:P108" si="6">+J107</f>
+        <v>10.173104269824943</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="43"/>
+      <c r="E108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="21">
+        <v>10.89501578573061</v>
+      </c>
+      <c r="G108" s="13">
+        <v>89.104984214269393</v>
+      </c>
+      <c r="H108" s="43"/>
+      <c r="I108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J108" s="21">
+        <v>11.688681787351449</v>
+      </c>
+      <c r="K108" s="29">
+        <v>88.311318212648558</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N108" s="37"/>
+      <c r="O108" s="3">
+        <f t="shared" si="5"/>
+        <v>10.89501578573061</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="6"/>
+        <v>11.688681787351449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="35"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+    </row>
+    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F110" s="3"/>
+      <c r="G110" s="23"/>
+    </row>
+    <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="B111" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="23"/>
-    </row>
-    <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
-      <c r="B111" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="23"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="25"/>
+      <c r="B113" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="23"/>
-    </row>
-    <row r="113" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="31" t="s">
+      <c r="F114" s="3"/>
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="3"/>
-      <c r="G113" s="23"/>
-    </row>
-    <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="24" t="s">
+      <c r="F115" s="3"/>
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="24" t="s">
+      <c r="E116" s="3"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="24"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="14"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="24"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="1"/>
+      <c r="I120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="1"/>
+      <c r="I121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3975,10 +4052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13FE07A-8BEB-49E4-BF96-09E9B153584A}">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66:P106"/>
+    <sheetView topLeftCell="F77" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107:M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4022,22 +4099,22 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="48"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -5553,10 +5630,10 @@
         <v>50.332253497681677</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="47"/>
+      <c r="G65" s="49"/>
       <c r="I65" s="8">
         <v>37377</v>
       </c>
@@ -6900,47 +6977,94 @@
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="50"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="M107" s="15"/>
+      <c r="A107" s="43"/>
+      <c r="E107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="21">
+        <v>31.625523480984008</v>
+      </c>
+      <c r="G107" s="13">
+        <v>68.374476519015985</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="21">
+        <v>34.458252883226379</v>
+      </c>
+      <c r="K107" s="22">
+        <v>65.541747116773635</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="N107" s="30"/>
-      <c r="O107" s="3"/>
+      <c r="O107" s="3">
+        <f t="shared" ref="O107:O108" si="4">+F107</f>
+        <v>31.625523480984008</v>
+      </c>
+      <c r="P107" s="3">
+        <f t="shared" ref="P107:P108" si="5">+J107</f>
+        <v>34.458252883226379</v>
+      </c>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="23"/>
+      <c r="A108" s="43"/>
+      <c r="E108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="21">
+        <v>31.960084510504291</v>
+      </c>
+      <c r="G108" s="13">
+        <v>68.039915489495712</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J108" s="21">
+        <v>34.807525536160028</v>
+      </c>
+      <c r="K108" s="22">
+        <v>65.192474463839972</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N108" s="30"/>
+      <c r="O108" s="3">
+        <f t="shared" si="4"/>
+        <v>31.960084510504291</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="5"/>
+        <v>34.807525536160028</v>
+      </c>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="24"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="23"/>
+      <c r="A109" s="35"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="44"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="3"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C110" s="24"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="23"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
+      <c r="A111" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="B111" s="24" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C111" s="24"/>
       <c r="E111" s="3"/>
@@ -6949,90 +7073,109 @@
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="24" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C112" s="24"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="31" t="s">
-        <v>50</v>
-      </c>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="25"/>
+      <c r="B113" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="24"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="24" t="s">
-        <v>58</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C114" s="24"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="24" t="s">
-        <v>52</v>
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7048,10 +7191,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5F5717-EB5B-4363-85D9-8B597442C0B1}">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="G84" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -7095,22 +7238,22 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="48"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="36"/>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -8604,10 +8747,10 @@
         <v>76.43448584038903</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="47"/>
+      <c r="G65" s="49"/>
       <c r="I65" s="8">
         <v>37377</v>
       </c>
@@ -9921,10 +10064,10 @@
         <v>67</v>
       </c>
       <c r="J106" s="21">
-        <v>9.3648608214833455</v>
+        <v>8.3982600088573385</v>
       </c>
       <c r="K106" s="29">
-        <v>90.635139178516653</v>
+        <v>91.601739991142665</v>
       </c>
       <c r="M106" s="15" t="s">
         <v>67</v>
@@ -9936,143 +10079,207 @@
       </c>
       <c r="P106" s="3">
         <f t="shared" si="7"/>
-        <v>9.3648608214833455</v>
+        <v>8.3982600088573385</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="50"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="30"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="A107" s="43"/>
+      <c r="E107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="21">
+        <v>10.548041232767863</v>
+      </c>
+      <c r="G107" s="13">
+        <v>89.451958767232128</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="21">
+        <v>10.548041232767865</v>
+      </c>
+      <c r="K107" s="29">
+        <v>89.451958767232142</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="N107" s="37"/>
+      <c r="O107" s="3">
+        <f t="shared" ref="O107:O108" si="8">+F107</f>
+        <v>10.548041232767863</v>
+      </c>
+      <c r="P107" s="3">
+        <f t="shared" ref="P107:P108" si="9">+J107</f>
+        <v>10.548041232767865</v>
+      </c>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="23"/>
+      <c r="A108" s="43"/>
+      <c r="E108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="21">
+        <v>10.492171136640223</v>
+      </c>
+      <c r="G108" s="13">
+        <v>89.507828863359777</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J108" s="21">
+        <v>10.492171136640223</v>
+      </c>
+      <c r="K108" s="29">
+        <v>89.507828863359777</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="N108" s="37"/>
+      <c r="O108" s="3">
+        <f t="shared" si="8"/>
+        <v>10.492171136640223</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="9"/>
+        <v>10.492171136640223</v>
+      </c>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="23"/>
+      <c r="A109" s="35"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="44"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="24" t="s">
-        <v>57</v>
-      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="23"/>
-      <c r="M110" s="2"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
+      <c r="A111" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="B111" s="24" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="23"/>
-      <c r="M111" s="2"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="24" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="23"/>
-    </row>
-    <row r="113" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="31" t="s">
-        <v>50</v>
+      <c r="M112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="25"/>
+      <c r="B113" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="23"/>
-    </row>
-    <row r="114" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="24"/>
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="2"/>
+    </row>
+    <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="24"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
-      <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
-      <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F131" s="3"/>
+    </row>
     <row r="132" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="133" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10095,6 +10302,8 @@
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J8:K8"/>
@@ -10109,10 +10318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73681E4-58B2-4884-8BBC-33B2EB6E0BAA}">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="I90" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -10156,22 +10365,22 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="48"/>
       <c r="H8" s="2"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="44"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
@@ -11687,10 +11896,10 @@
         <v>41.074699765824619</v>
       </c>
       <c r="E65" s="16"/>
-      <c r="F65" s="45" t="s">
+      <c r="F65" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="G65" s="47"/>
+      <c r="G65" s="49"/>
       <c r="I65" s="8">
         <v>37377</v>
       </c>
@@ -13024,46 +13233,95 @@
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="35"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="29"/>
-      <c r="G107" s="50"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="29"/>
-      <c r="M107" s="36"/>
+      <c r="A107" s="43"/>
+      <c r="E107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="21">
+        <v>41.217432837817334</v>
+      </c>
+      <c r="G107" s="13">
+        <v>58.782567162182673</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="21">
+        <v>41.217432837817334</v>
+      </c>
+      <c r="K107" s="22">
+        <v>58.782567162182673</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="N107" s="30"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
+      <c r="O107" s="3">
+        <f t="shared" ref="O107:O108" si="4">+F107</f>
+        <v>41.217432837817334</v>
+      </c>
+      <c r="P107" s="3">
+        <f t="shared" ref="P107:P108" si="5">+J107</f>
+        <v>41.217432837817334</v>
+      </c>
     </row>
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="23"/>
+      <c r="A108" s="43"/>
+      <c r="E108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="21">
+        <v>41.340202951330475</v>
+      </c>
+      <c r="G108" s="13">
+        <v>58.659797048669517</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J108" s="21">
+        <v>41.340202951330475</v>
+      </c>
+      <c r="K108" s="22">
+        <v>58.659797048669517</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N108" s="30"/>
+      <c r="O108" s="3">
+        <f t="shared" si="4"/>
+        <v>41.340202951330475</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="5"/>
+        <v>41.340202951330475</v>
+      </c>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="23"/>
+      <c r="A109" s="35"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="44"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="24" t="s">
-        <v>57</v>
-      </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="23"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
+      <c r="A111" s="25" t="s">
+        <v>46</v>
+      </c>
       <c r="B111" s="24" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -13071,81 +13329,90 @@
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="24" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="31" t="s">
-        <v>50</v>
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="25"/>
+      <c r="B113" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="24" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="24"/>
+      <c r="G114" s="23"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="23"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="24"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
@@ -13153,8 +13420,14 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
     <row r="132" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="133" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="134" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13177,6 +13450,8 @@
     <row r="151" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="152" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="153" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="J8:K8"/>
